--- a/biology/Zoologie/Dorcopsulus_macleayi/Dorcopsulus_macleayi.xlsx
+++ b/biology/Zoologie/Dorcopsulus_macleayi/Dorcopsulus_macleayi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wallaby de Macleay, Dorcopsis de Macleay
 Le Wallaby de Macleay ou Dorcopsis de Macleay (Dorcopsulus macleayi) est une espèce de marsupiaux de la famille des Macropodidae. Il est endémique de Papouasie-Nouvelle-Guinée. Son habitat naturel est les forêts tropicales et subtropicales sèches. Il est menacé par la disparition de son habitat.
